--- a/Service.MedicalRecord/wwwroot/layout/excel/cita/CitaFormulario.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/cita/CitaFormulario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\cotizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61547FEB-D44F-4A7C-B78C-F773A45F4625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF81B5-C222-44ED-9695-DF4FD1B8998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -174,11 +174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +552,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,11 +561,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -573,13 +573,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -590,13 +590,13 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -607,13 +607,13 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -624,13 +624,13 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -641,28 +641,28 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -670,8 +670,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
@@ -681,8 +681,8 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
@@ -691,8 +691,8 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
@@ -712,6 +712,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
@@ -721,14 +729,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
